--- a/trnsl.xlsx
+++ b/trnsl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="App" sheetId="5" r:id="rId1"/>
@@ -470,13 +470,13 @@
     <t>Сменить тип</t>
   </si>
   <si>
+    <t>Шаблон</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
     <t>dependencyPattern-pattern</t>
-  </si>
-  <si>
-    <t>Pattern {0}</t>
-  </si>
-  <si>
-    <t>Шаблон {0}</t>
   </si>
   <si>
     <t>dependencyPattern-button-refresh</t>
@@ -1740,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2224,7 +2224,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B42" s="4" t="str">
         <f>"""{loc:Loc "&amp;Таблица1[[#This Row],[Name]]&amp;"}"" ToolTip=""{loc:Loc "&amp;Таблица1[[#This Row],[Name]]&amp;"-tooltip}"""</f>
@@ -3353,19 +3353,19 @@
         <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" ref="E42" si="20">"[JsonProperty("""&amp;A42&amp;""")] public string "&amp; SUBSTITUTE(A42,"-", "_") &amp;" { get; set; } = """&amp;C42&amp;""";"</f>
-        <v>[JsonProperty("dependencyPattern-pattern")] public string dependencyPattern_pattern { get; set; } = "Pattern {0}";</v>
+        <v>[JsonProperty("dependencyPattern-pattern")] public string dependencyPattern_pattern { get; set; } = "Pattern";</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" ref="F42" si="21">""""&amp;$A42&amp;""": """&amp;C42&amp;""","</f>
-        <v>"dependencyPattern-pattern": "Pattern {0}",</v>
+        <v>"dependencyPattern-pattern": "Pattern",</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" ref="G42" si="22">""""&amp;$A42&amp;""": """&amp;D42&amp;""","</f>
-        <v>"dependencyPattern-pattern": "Шаблон {0}",</v>
+        <v>"dependencyPattern-pattern": "Шаблон",</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3839,19 +3839,19 @@
         <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E60" t="str">
         <f>"[JsonProperty("""&amp;A60&amp;""")] public string "&amp; SUBSTITUTE(A60,"-", "_") &amp;" { get; set; } = """&amp;C60&amp;""";"</f>
-        <v>[JsonProperty("conditionalFileInstall-pattern")] public string conditionalFileInstall_pattern { get; set; } = "Pattern {0}";</v>
+        <v>[JsonProperty("conditionalFileInstall-pattern")] public string conditionalFileInstall_pattern { get; set; } = "Pattern";</v>
       </c>
       <c r="F60" t="str">
         <f>""""&amp;$A60&amp;""": """&amp;C60&amp;""","</f>
-        <v>"conditionalFileInstall-pattern": "Pattern {0}",</v>
+        <v>"conditionalFileInstall-pattern": "Pattern",</v>
       </c>
       <c r="G60" t="str">
         <f>""""&amp;$A60&amp;""": """&amp;D60&amp;""","</f>
-        <v>"conditionalFileInstall-pattern": "Шаблон {0}",</v>
+        <v>"conditionalFileInstall-pattern": "Шаблон",</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5307,8 +5307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trnsl.xlsx
+++ b/trnsl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="App" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="409">
   <si>
     <t>Name</t>
   </si>
@@ -1331,21 +1331,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1359,6 +1344,21 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -1383,11 +1383,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:G17" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:G17" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:G17"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="xaml " dataDxfId="0">
+    <tableColumn id="2" name="xaml " dataDxfId="6">
       <calculatedColumnFormula>"{loc:Loc "&amp;Таблица3[[#This Row],[Name]]&amp;"}"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="EN"/>
@@ -1407,11 +1407,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G61" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G61" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:G61"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Name"/>
-    <tableColumn id="7" name="xaml " dataDxfId="5">
+    <tableColumn id="7" name="xaml " dataDxfId="4">
       <calculatedColumnFormula>"""{loc:Loc "&amp;Таблица1[[#This Row],[Name]]&amp;"}"" ToolTip=""{loc:Loc "&amp;Таблица1[[#This Row],[Name]]&amp;"-tooltip}"""</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="EN"/>
@@ -1431,8 +1431,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="A1:F58" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="A1:F61" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:F61"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name">
       <calculatedColumnFormula>Editor!A2 &amp; "-tooltip"</calculatedColumnFormula>
@@ -1464,10 +1464,10 @@
     <tableColumn id="5" name="Json En" dataDxfId="2">
       <calculatedColumnFormula>""""&amp;A2&amp;"-"&amp;B2&amp;""": """ &amp; C2 &amp; """"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Json Ru" dataDxfId="3">
+    <tableColumn id="7" name="Json Ru" dataDxfId="1">
       <calculatedColumnFormula>""""&amp;A2&amp;"-"&amp;B2&amp;""": """ &amp; D2 &amp; """"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="C#" dataDxfId="4">
+    <tableColumn id="6" name="C#" dataDxfId="0">
       <calculatedColumnFormula>"[JsonProperty("""&amp;Таблица4[[#This Row],[Enum]]&amp;"-"&amp;B2&amp;""")] public string "&amp; ""&amp;Таблица4[[#This Row],[Enum]]&amp;"_"&amp; B2 &amp;" { get; set; } = """&amp;C2&amp;""";"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1740,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1750,7 @@
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="59.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="45" bestFit="1" customWidth="1"/>
   </cols>
@@ -1793,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="str">
-        <f>"[JsonProperty("""&amp;A2&amp;""")] public string "&amp; SUBSTITUTE(A2,"-", "_") &amp;" { get; set; } = """&amp;C2&amp;""";"</f>
+        <f t="shared" ref="E2:E17" si="0">"[JsonProperty("""&amp;A2&amp;""")] public string "&amp; SUBSTITUTE(A2,"-", "_") &amp;" { get; set; } = """&amp;C2&amp;""";"</f>
         <v>[JsonProperty("app-welcome")] public string app_welcome { get; set; } = "Welcome!";</v>
       </c>
       <c r="F2" t="str">
@@ -1820,7 +1820,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="str">
-        <f>"[JsonProperty("""&amp;A3&amp;""")] public string "&amp; SUBSTITUTE(A3,"-", "_") &amp;" { get; set; } = """&amp;C3&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("app-open-project")] public string app_open_project { get; set; } = "Open project";</v>
       </c>
       <c r="F3" t="str">
@@ -1847,15 +1847,15 @@
         <v>12</v>
       </c>
       <c r="E4" t="str">
-        <f>"[JsonProperty("""&amp;A4&amp;""")] public string "&amp; SUBSTITUTE(A4,"-", "_") &amp;" { get; set; } = """&amp;C4&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("app-save-project")] public string app_save_project { get; set; } = "Save";</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:G14" si="0">""""&amp;$A4&amp;""": """&amp;C4&amp;""","</f>
+        <f t="shared" ref="F4:G14" si="1">""""&amp;$A4&amp;""": """&amp;C4&amp;""","</f>
         <v>"app-save-project": "Save",</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"app-save-project": "Сохранить",</v>
       </c>
     </row>
@@ -1874,15 +1874,15 @@
         <v>13</v>
       </c>
       <c r="E5" t="str">
-        <f>"[JsonProperty("""&amp;A5&amp;""")] public string "&amp; SUBSTITUTE(A5,"-", "_") &amp;" { get; set; } = """&amp;C5&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("app-save-as-project")] public string app_save_as_project { get; set; } = "Save as";</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"app-save-as-project": "Save as",</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"app-save-as-project": "Сохранить как",</v>
       </c>
     </row>
@@ -1901,15 +1901,15 @@
         <v>14</v>
       </c>
       <c r="E6" t="str">
-        <f>"[JsonProperty("""&amp;A6&amp;""")] public string "&amp; SUBSTITUTE(A6,"-", "_") &amp;" { get; set; } = """&amp;C6&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("app-new-project")] public string app_new_project { get; set; } = "Create project";</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"app-new-project": "Create project",</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"app-new-project": "Создать",</v>
       </c>
     </row>
@@ -1928,15 +1928,15 @@
         <v>15</v>
       </c>
       <c r="E7" t="str">
-        <f>"[JsonProperty("""&amp;A7&amp;""")] public string "&amp; SUBSTITUTE(A7,"-", "_") &amp;" { get; set; } = """&amp;C7&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("app-close-application")] public string app_close_application { get; set; } = "Close programm";</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"app-close-application": "Close programm",</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"app-close-application": "Закрыть программу",</v>
       </c>
     </row>
@@ -1955,15 +1955,15 @@
         <v>91</v>
       </c>
       <c r="E8" t="str">
-        <f>"[JsonProperty("""&amp;A8&amp;""")] public string "&amp; SUBSTITUTE(A8,"-", "_") &amp;" { get; set; } = """&amp;C8&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("app-recent")] public string app_recent { get; set; } = "Recent";</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"app-recent": "Recent",</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"app-recent": "проекты",</v>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
         <v>90</v>
       </c>
       <c r="E9" t="str">
-        <f>"[JsonProperty("""&amp;A9&amp;""")] public string "&amp; SUBSTITUTE(A9,"-", "_") &amp;" { get; set; } = """&amp;C9&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("app-recent-header")] public string app_recent_header { get; set; } = "FOMOD Creator";</v>
       </c>
       <c r="F9" t="str">
@@ -2009,7 +2009,7 @@
         <v>93</v>
       </c>
       <c r="E10" t="str">
-        <f>"[JsonProperty("""&amp;A10&amp;""")] public string "&amp; SUBSTITUTE(A10,"-", "_") &amp;" { get; set; } = """&amp;C10&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("app-main-tab-name")] public string app_main_tab_name { get; set; } = "Welcome!";</v>
       </c>
       <c r="F10" t="str">
@@ -2036,15 +2036,15 @@
         <v>16</v>
       </c>
       <c r="E11" t="str">
-        <f>"[JsonProperty("""&amp;A11&amp;""")] public string "&amp; SUBSTITUTE(A11,"-", "_") &amp;" { get; set; } = """&amp;C11&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("tree-plugin-tooltip")] public string tree_plugin_tooltip { get; set; } = "Plagin";</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"tree-plugin-tooltip": "Plagin",</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"tree-plugin-tooltip": "Плагин",</v>
       </c>
     </row>
@@ -2063,15 +2063,15 @@
         <v>17</v>
       </c>
       <c r="E12" t="str">
-        <f>"[JsonProperty("""&amp;A12&amp;""")] public string "&amp; SUBSTITUTE(A12,"-", "_") &amp;" { get; set; } = """&amp;C12&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("tree-group-tooltip")] public string tree_group_tooltip { get; set; } = "Group";</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"tree-group-tooltip": "Group",</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"tree-group-tooltip": "Группа",</v>
       </c>
     </row>
@@ -2090,15 +2090,15 @@
         <v>18</v>
       </c>
       <c r="E13" t="str">
-        <f>"[JsonProperty("""&amp;A13&amp;""")] public string "&amp; SUBSTITUTE(A13,"-", "_") &amp;" { get; set; } = """&amp;C13&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("tree-install-step-tooltip")] public string tree_install_step_tooltip { get; set; } = "Install Step";</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"tree-install-step-tooltip": "Install Step",</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"tree-install-step-tooltip": "Установочный шаг",</v>
       </c>
     </row>
@@ -2117,15 +2117,15 @@
         <v>19</v>
       </c>
       <c r="E14" t="str">
-        <f>"[JsonProperty("""&amp;A14&amp;""")] public string "&amp; SUBSTITUTE(A14,"-", "_") &amp;" { get; set; } = """&amp;C14&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("tree-project-root-tooltip")] public string tree_project_root_tooltip { get; set; } = "Project Root";</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"tree-project-root-tooltip": "Project Root",</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"tree-project-root-tooltip": "Корень проекта",</v>
       </c>
     </row>
@@ -2144,15 +2144,15 @@
         <v>146</v>
       </c>
       <c r="E15" t="str">
-        <f>"[JsonProperty("""&amp;A15&amp;""")] public string "&amp; SUBSTITUTE(A15,"-", "_") &amp;" { get; set; } = """&amp;C15&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("dependencyPattern-button-change-type")] public string dependencyPattern_button_change_type { get; set; } = "Change type";</v>
       </c>
       <c r="F15" t="str">
-        <f>""""&amp;$A15&amp;""": """&amp;C15&amp;""","</f>
+        <f t="shared" ref="F15:G17" si="2">""""&amp;$A15&amp;""": """&amp;C15&amp;""","</f>
         <v>"dependencyPattern-button-change-type": "Change type",</v>
       </c>
       <c r="G15" t="str">
-        <f>""""&amp;$A15&amp;""": """&amp;D15&amp;""","</f>
+        <f t="shared" si="2"/>
         <v>"dependencyPattern-button-change-type": "Сменить тип",</v>
       </c>
     </row>
@@ -2171,15 +2171,15 @@
         <v>152</v>
       </c>
       <c r="E16" t="str">
-        <f>"[JsonProperty("""&amp;A16&amp;""")] public string "&amp; SUBSTITUTE(A16,"-", "_") &amp;" { get; set; } = """&amp;C16&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("conditionalFileInstall-button-refresh")] public string conditionalFileInstall_button_refresh { get; set; } = "Refresh patterns numbers";</v>
       </c>
       <c r="F16" t="str">
-        <f>""""&amp;$A16&amp;""": """&amp;C16&amp;""","</f>
+        <f t="shared" si="2"/>
         <v>"conditionalFileInstall-button-refresh": "Refresh patterns numbers",</v>
       </c>
       <c r="G16" t="str">
-        <f>""""&amp;$A16&amp;""": """&amp;D16&amp;""","</f>
+        <f t="shared" si="2"/>
         <v>"conditionalFileInstall-button-refresh": "Обновить номера",</v>
       </c>
     </row>
@@ -2198,15 +2198,15 @@
         <v>152</v>
       </c>
       <c r="E17" t="str">
-        <f>"[JsonProperty("""&amp;A17&amp;""")] public string "&amp; SUBSTITUTE(A17,"-", "_") &amp;" { get; set; } = """&amp;C17&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("dependencyPattern-button-refresh")] public string dependencyPattern_button_refresh { get; set; } = "Refresh patterns numbers";</v>
       </c>
       <c r="F17" t="str">
-        <f>""""&amp;$A17&amp;""": """&amp;C17&amp;""","</f>
+        <f t="shared" si="2"/>
         <v>"dependencyPattern-button-refresh": "Refresh patterns numbers",</v>
       </c>
       <c r="G17" t="str">
-        <f>""""&amp;$A17&amp;""": """&amp;D17&amp;""","</f>
+        <f t="shared" si="2"/>
         <v>"dependencyPattern-button-refresh": "Обновить номера",</v>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,15 +2276,15 @@
         <v>20</v>
       </c>
       <c r="E2" t="str">
-        <f>"[JsonProperty("""&amp;A2&amp;""")] public string "&amp; SUBSTITUTE(A2,"-", "_") &amp;" { get; set; } = """&amp;C2&amp;""";"</f>
+        <f t="shared" ref="E2:E13" si="0">"[JsonProperty("""&amp;A2&amp;""")] public string "&amp; SUBSTITUTE(A2,"-", "_") &amp;" { get; set; } = """&amp;C2&amp;""";"</f>
         <v>[JsonProperty("group-info")] public string group_info { get; set; } = "Group Info";</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F6" si="0">""""&amp;$A2&amp;""": """&amp;C2&amp;""","</f>
+        <f t="shared" ref="F2:F6" si="1">""""&amp;$A2&amp;""": """&amp;C2&amp;""","</f>
         <v>"group-info": "Group Info",</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G6" si="1">""""&amp;$A2&amp;""": """&amp;D2&amp;""","</f>
+        <f t="shared" ref="G2:G6" si="2">""""&amp;$A2&amp;""": """&amp;D2&amp;""","</f>
         <v>"group-info": "Информация о группе",</v>
       </c>
     </row>
@@ -2303,15 +2303,15 @@
         <v>21</v>
       </c>
       <c r="E3" t="str">
-        <f>"[JsonProperty("""&amp;A3&amp;""")] public string "&amp; SUBSTITUTE(A3,"-", "_") &amp;" { get; set; } = """&amp;C3&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("group-name")] public string group_name { get; set; } = "Group name";</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"group-name": "Group name",</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"group-name": "Имя группы",</v>
       </c>
     </row>
@@ -2330,15 +2330,15 @@
         <v>22</v>
       </c>
       <c r="E4" t="str">
-        <f>"[JsonProperty("""&amp;A4&amp;""")] public string "&amp; SUBSTITUTE(A4,"-", "_") &amp;" { get; set; } = """&amp;C4&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("group-type")] public string group_type { get; set; } = "Group type";</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"group-type": "Group type",</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"group-type": "Тип группы",</v>
       </c>
     </row>
@@ -2357,15 +2357,15 @@
         <v>23</v>
       </c>
       <c r="E5" t="str">
-        <f>"[JsonProperty("""&amp;A5&amp;""")] public string "&amp; SUBSTITUTE(A5,"-", "_") &amp;" { get; set; } = """&amp;C5&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("group-other-settings")] public string group_other_settings { get; set; } = "Other Settings";</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"group-other-settings": "Other Settings",</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"group-other-settings": "Иные настройки",</v>
       </c>
     </row>
@@ -2384,15 +2384,15 @@
         <v>24</v>
       </c>
       <c r="E6" t="str">
-        <f>"[JsonProperty("""&amp;A6&amp;""")] public string "&amp; SUBSTITUTE(A6,"-", "_") &amp;" { get; set; } = """&amp;C6&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("group-plugins-order")] public string group_plugins_order { get; set; } = "Plugins Order";</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"group-plugins-order": "Plugins Order",</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"group-plugins-order": "Сортировка плагинов",</v>
       </c>
     </row>
@@ -2411,15 +2411,15 @@
         <v>43</v>
       </c>
       <c r="E7" t="str">
-        <f>"[JsonProperty("""&amp;A7&amp;""")] public string "&amp; SUBSTITUTE(A7,"-", "_") &amp;" { get; set; } = """&amp;C7&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("installStep-info")] public string installStep_info { get; set; } = "Install Step Info";</v>
       </c>
       <c r="F7" t="str">
-        <f>""""&amp;$A7&amp;""": """&amp;C7&amp;""","</f>
+        <f t="shared" ref="F7:G13" si="3">""""&amp;$A7&amp;""": """&amp;C7&amp;""","</f>
         <v>"installStep-info": "Install Step Info",</v>
       </c>
       <c r="G7" t="str">
-        <f>""""&amp;$A7&amp;""": """&amp;D7&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"installStep-info": "Информация",</v>
       </c>
     </row>
@@ -2438,15 +2438,15 @@
         <v>67</v>
       </c>
       <c r="E8" t="str">
-        <f>"[JsonProperty("""&amp;A8&amp;""")] public string "&amp; SUBSTITUTE(A8,"-", "_") &amp;" { get; set; } = """&amp;C8&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("installStep-step-name")] public string installStep_step_name { get; set; } = "Step Name";</v>
       </c>
       <c r="F8" t="str">
-        <f>""""&amp;$A8&amp;""": """&amp;C8&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"installStep-step-name": "Step Name",</v>
       </c>
       <c r="G8" t="str">
-        <f>""""&amp;$A8&amp;""": """&amp;D8&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"installStep-step-name": "Тия шага",</v>
       </c>
     </row>
@@ -2465,15 +2465,15 @@
         <v>23</v>
       </c>
       <c r="E9" t="str">
-        <f>"[JsonProperty("""&amp;A9&amp;""")] public string "&amp; SUBSTITUTE(A9,"-", "_") &amp;" { get; set; } = """&amp;C9&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("installStep-other-settings")] public string installStep_other_settings { get; set; } = "Other Settings";</v>
       </c>
       <c r="F9" t="str">
-        <f>""""&amp;$A9&amp;""": """&amp;C9&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"installStep-other-settings": "Other Settings",</v>
       </c>
       <c r="G9" t="str">
-        <f>""""&amp;$A9&amp;""": """&amp;D9&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"installStep-other-settings": "Иные настройки",</v>
       </c>
     </row>
@@ -2492,15 +2492,15 @@
         <v>66</v>
       </c>
       <c r="E10" t="str">
-        <f>"[JsonProperty("""&amp;A10&amp;""")] public string "&amp; SUBSTITUTE(A10,"-", "_") &amp;" { get; set; } = """&amp;C10&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("installStep-groups-order")] public string installStep_groups_order { get; set; } = "Groups Order";</v>
       </c>
       <c r="F10" t="str">
-        <f>""""&amp;$A10&amp;""": """&amp;C10&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"installStep-groups-order": "Groups Order",</v>
       </c>
       <c r="G10" t="str">
-        <f>""""&amp;$A10&amp;""": """&amp;D10&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"installStep-groups-order": "Сортировка групп",</v>
       </c>
     </row>
@@ -2519,15 +2519,15 @@
         <v>153</v>
       </c>
       <c r="E11" t="str">
-        <f>"[JsonProperty("""&amp;A11&amp;""")] public string "&amp; SUBSTITUTE(A11,"-", "_") &amp;" { get; set; } = """&amp;C11&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("compositeDependency-title")] public string compositeDependency_title { get; set; } = "Composite dependency";</v>
       </c>
       <c r="F11" t="str">
-        <f>""""&amp;$A11&amp;""": """&amp;C11&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"compositeDependency-title": "Composite dependency",</v>
       </c>
       <c r="G11" t="str">
-        <f>""""&amp;$A11&amp;""": """&amp;D11&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"compositeDependency-title": "Комплексные зависимости",</v>
       </c>
     </row>
@@ -2546,15 +2546,15 @@
         <v>70</v>
       </c>
       <c r="E12" t="str">
-        <f>"[JsonProperty("""&amp;A12&amp;""")] public string "&amp; SUBSTITUTE(A12,"-", "_") &amp;" { get; set; } = """&amp;C12&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("compositeDependency-operator")] public string compositeDependency_operator { get; set; } = "Operator";</v>
       </c>
       <c r="F12" t="str">
-        <f>""""&amp;$A12&amp;""": """&amp;C12&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"compositeDependency-operator": "Operator",</v>
       </c>
       <c r="G12" t="str">
-        <f>""""&amp;$A12&amp;""": """&amp;D12&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"compositeDependency-operator": "Оператор композиции",</v>
       </c>
     </row>
@@ -2573,15 +2573,15 @@
         <v>72</v>
       </c>
       <c r="E13" t="str">
-        <f>"[JsonProperty("""&amp;A13&amp;""")] public string "&amp; SUBSTITUTE(A13,"-", "_") &amp;" { get; set; } = """&amp;C13&amp;""";"</f>
+        <f t="shared" si="0"/>
         <v>[JsonProperty("compositeDependency-files-dependency")] public string compositeDependency_files_dependency { get; set; } = "Files dependency";</v>
       </c>
       <c r="F13" t="str">
-        <f>""""&amp;$A13&amp;""": """&amp;C13&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"compositeDependency-files-dependency": "Files dependency",</v>
       </c>
       <c r="G13" t="str">
-        <f>""""&amp;$A13&amp;""": """&amp;D13&amp;""","</f>
+        <f t="shared" si="3"/>
         <v>"compositeDependency-files-dependency": "Файловые зависимости",</v>
       </c>
     </row>
@@ -2600,15 +2600,15 @@
         <v>86</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ref="E14:E15" si="2">"[JsonProperty("""&amp;A14&amp;""")] public string "&amp; SUBSTITUTE(A14,"-", "_") &amp;" { get; set; } = """&amp;C14&amp;""";"</f>
+        <f t="shared" ref="E14:E15" si="4">"[JsonProperty("""&amp;A14&amp;""")] public string "&amp; SUBSTITUTE(A14,"-", "_") &amp;" { get; set; } = """&amp;C14&amp;""";"</f>
         <v>[JsonProperty("compositeDependency-file-status")] public string compositeDependency_file_status { get; set; } = "Status";</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" ref="F14:F15" si="3">""""&amp;$A14&amp;""": """&amp;C14&amp;""","</f>
+        <f t="shared" ref="F14:F15" si="5">""""&amp;$A14&amp;""": """&amp;C14&amp;""","</f>
         <v>"compositeDependency-file-status": "Status",</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14:G15" si="4">""""&amp;$A14&amp;""": """&amp;D14&amp;""","</f>
+        <f t="shared" ref="G14:G15" si="6">""""&amp;$A14&amp;""": """&amp;D14&amp;""","</f>
         <v>"compositeDependency-file-status": "Статус",</v>
       </c>
     </row>
@@ -2627,15 +2627,15 @@
         <v>80</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[JsonProperty("compositeDependency-file-name")] public string compositeDependency_file_name { get; set; } = "File name";</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"compositeDependency-file-name": "File name",</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"compositeDependency-file-name": "Имя",</v>
       </c>
     </row>
@@ -2654,15 +2654,15 @@
         <v>75</v>
       </c>
       <c r="E16" t="str">
-        <f>"[JsonProperty("""&amp;A16&amp;""")] public string "&amp; SUBSTITUTE(A16,"-", "_") &amp;" { get; set; } = """&amp;C16&amp;""";"</f>
+        <f t="shared" ref="E16:E22" si="7">"[JsonProperty("""&amp;A16&amp;""")] public string "&amp; SUBSTITUTE(A16,"-", "_") &amp;" { get; set; } = """&amp;C16&amp;""";"</f>
         <v>[JsonProperty("compositeDependency-flag-dependency")] public string compositeDependency_flag_dependency { get; set; } = "Flag dependency";</v>
       </c>
       <c r="F16" t="str">
-        <f>""""&amp;$A16&amp;""": """&amp;C16&amp;""","</f>
+        <f t="shared" ref="F16:G22" si="8">""""&amp;$A16&amp;""": """&amp;C16&amp;""","</f>
         <v>"compositeDependency-flag-dependency": "Flag dependency",</v>
       </c>
       <c r="G16" t="str">
-        <f>""""&amp;$A16&amp;""": """&amp;D16&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"compositeDependency-flag-dependency": "Флаговая зависимость",</v>
       </c>
     </row>
@@ -2681,15 +2681,15 @@
         <v>79</v>
       </c>
       <c r="E17" t="str">
-        <f>"[JsonProperty("""&amp;A17&amp;""")] public string "&amp; SUBSTITUTE(A17,"-", "_") &amp;" { get; set; } = """&amp;C17&amp;""";"</f>
+        <f t="shared" si="7"/>
         <v>[JsonProperty("compositeDependency-flag-value")] public string compositeDependency_flag_value { get; set; } = "Value";</v>
       </c>
       <c r="F17" t="str">
-        <f>""""&amp;$A17&amp;""": """&amp;C17&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"compositeDependency-flag-value": "Value",</v>
       </c>
       <c r="G17" t="str">
-        <f>""""&amp;$A17&amp;""": """&amp;D17&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"compositeDependency-flag-value": "Значение",</v>
       </c>
     </row>
@@ -2708,15 +2708,15 @@
         <v>80</v>
       </c>
       <c r="E18" t="str">
-        <f>"[JsonProperty("""&amp;A18&amp;""")] public string "&amp; SUBSTITUTE(A18,"-", "_") &amp;" { get; set; } = """&amp;C18&amp;""";"</f>
+        <f t="shared" si="7"/>
         <v>[JsonProperty("compositeDependency-flag-name")] public string compositeDependency_flag_name { get; set; } = "Flag Name";</v>
       </c>
       <c r="F18" t="str">
-        <f>""""&amp;$A18&amp;""": """&amp;C18&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"compositeDependency-flag-name": "Flag Name",</v>
       </c>
       <c r="G18" t="str">
-        <f>""""&amp;$A18&amp;""": """&amp;D18&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"compositeDependency-flag-name": "Имя",</v>
       </c>
     </row>
@@ -2735,15 +2735,15 @@
         <v>16</v>
       </c>
       <c r="E19" t="str">
-        <f>"[JsonProperty("""&amp;A19&amp;""")] public string "&amp; SUBSTITUTE(A19,"-", "_") &amp;" { get; set; } = """&amp;C19&amp;""";"</f>
+        <f t="shared" si="7"/>
         <v>[JsonProperty("plugin-info")] public string plugin_info { get; set; } = "Plugin info";</v>
       </c>
       <c r="F19" t="str">
-        <f>""""&amp;$A19&amp;""": """&amp;C19&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"plugin-info": "Plugin info",</v>
       </c>
       <c r="G19" t="str">
-        <f>""""&amp;$A19&amp;""": """&amp;D19&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"plugin-info": "Плагин",</v>
       </c>
     </row>
@@ -2762,15 +2762,15 @@
         <v>80</v>
       </c>
       <c r="E20" t="str">
-        <f>"[JsonProperty("""&amp;A20&amp;""")] public string "&amp; SUBSTITUTE(A20,"-", "_") &amp;" { get; set; } = """&amp;C20&amp;""";"</f>
+        <f t="shared" si="7"/>
         <v>[JsonProperty("plugin-name")] public string plugin_name { get; set; } = "Plugin name";</v>
       </c>
       <c r="F20" t="str">
-        <f>""""&amp;$A20&amp;""": """&amp;C20&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"plugin-name": "Plugin name",</v>
       </c>
       <c r="G20" t="str">
-        <f>""""&amp;$A20&amp;""": """&amp;D20&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"plugin-name": "Имя",</v>
       </c>
     </row>
@@ -2789,15 +2789,15 @@
         <v>98</v>
       </c>
       <c r="E21" t="str">
-        <f>"[JsonProperty("""&amp;A21&amp;""")] public string "&amp; SUBSTITUTE(A21,"-", "_") &amp;" { get; set; } = """&amp;C21&amp;""";"</f>
+        <f t="shared" si="7"/>
         <v>[JsonProperty("plugin-description")] public string plugin_description { get; set; } = "Description";</v>
       </c>
       <c r="F21" t="str">
-        <f>""""&amp;$A21&amp;""": """&amp;C21&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"plugin-description": "Description",</v>
       </c>
       <c r="G21" t="str">
-        <f>""""&amp;$A21&amp;""": """&amp;D21&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"plugin-description": "Описание",</v>
       </c>
     </row>
@@ -2816,15 +2816,15 @@
         <v>99</v>
       </c>
       <c r="E22" t="str">
-        <f>"[JsonProperty("""&amp;A22&amp;""")] public string "&amp; SUBSTITUTE(A22,"-", "_") &amp;" { get; set; } = """&amp;C22&amp;""";"</f>
+        <f t="shared" si="7"/>
         <v>[JsonProperty("plugin-image")] public string plugin_image { get; set; } = "Image";</v>
       </c>
       <c r="F22" t="str">
-        <f>""""&amp;$A22&amp;""": """&amp;C22&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"plugin-image": "Image",</v>
       </c>
       <c r="G22" t="str">
-        <f>""""&amp;$A22&amp;""": """&amp;D22&amp;""","</f>
+        <f t="shared" si="8"/>
         <v>"plugin-image": "Банер",</v>
       </c>
     </row>
@@ -2843,15 +2843,15 @@
         <v>110</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ref="E23:E24" si="5">"[JsonProperty("""&amp;A23&amp;""")] public string "&amp; SUBSTITUTE(A23,"-", "_") &amp;" { get; set; } = """&amp;C23&amp;""";"</f>
+        <f t="shared" ref="E23:E24" si="9">"[JsonProperty("""&amp;A23&amp;""")] public string "&amp; SUBSTITUTE(A23,"-", "_") &amp;" { get; set; } = """&amp;C23&amp;""";"</f>
         <v>[JsonProperty("plugin-files-and-folders")] public string plugin_files_and_folders { get; set; } = "Files and folders";</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" ref="F23:F24" si="6">""""&amp;$A23&amp;""": """&amp;C23&amp;""","</f>
+        <f t="shared" ref="F23:F24" si="10">""""&amp;$A23&amp;""": """&amp;C23&amp;""","</f>
         <v>"plugin-files-and-folders": "Files and folders",</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" ref="G23:G24" si="7">""""&amp;$A23&amp;""": """&amp;D23&amp;""","</f>
+        <f t="shared" ref="G23:G24" si="11">""""&amp;$A23&amp;""": """&amp;D23&amp;""","</f>
         <v>"plugin-files-and-folders": "Файлы и папки",</v>
       </c>
     </row>
@@ -2870,15 +2870,15 @@
         <v>155</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>[JsonProperty("plugin-condition-flags")] public string plugin_condition_flags { get; set; } = "Condition Flags";</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>"plugin-condition-flags": "Condition Flags",</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>"plugin-condition-flags": "Флаги состояния",</v>
       </c>
     </row>
@@ -2901,11 +2901,11 @@
         <v>[JsonProperty("image-path")] public string image_path { get; set; } = "Path";</v>
       </c>
       <c r="F25" t="str">
-        <f>""""&amp;$A25&amp;""": """&amp;C25&amp;""","</f>
+        <f t="shared" ref="F25:G27" si="12">""""&amp;$A25&amp;""": """&amp;C25&amp;""","</f>
         <v>"image-path": "Path",</v>
       </c>
       <c r="G25" t="str">
-        <f>""""&amp;$A25&amp;""": """&amp;D25&amp;""","</f>
+        <f t="shared" si="12"/>
         <v>"image-path": "Путь",</v>
       </c>
     </row>
@@ -2928,11 +2928,11 @@
         <v>[JsonProperty("image-show")] public string image_show { get; set; } = "Show Image";</v>
       </c>
       <c r="F26" t="str">
-        <f>""""&amp;$A26&amp;""": """&amp;C26&amp;""","</f>
+        <f t="shared" si="12"/>
         <v>"image-show": "Show Image",</v>
       </c>
       <c r="G26" t="str">
-        <f>""""&amp;$A26&amp;""": """&amp;D26&amp;""","</f>
+        <f t="shared" si="12"/>
         <v>"image-show": "Показать",</v>
       </c>
     </row>
@@ -2955,11 +2955,11 @@
         <v>[JsonProperty("image-height")] public string image_height { get; set; } = "Height";</v>
       </c>
       <c r="F27" t="str">
-        <f>""""&amp;$A27&amp;""": """&amp;C27&amp;""","</f>
+        <f t="shared" si="12"/>
         <v>"image-height": "Height",</v>
       </c>
       <c r="G27" t="str">
-        <f>""""&amp;$A27&amp;""": """&amp;D27&amp;""","</f>
+        <f t="shared" si="12"/>
         <v>"image-height": "Высота",</v>
       </c>
     </row>
@@ -2978,15 +2978,15 @@
         <v>194</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" ref="E28" si="8">"[JsonProperty("""&amp;A28&amp;""")] public string "&amp; SUBSTITUTE(A28,"-", "_") &amp;" { get; set; } = """&amp;C28&amp;""";"</f>
+        <f t="shared" ref="E28" si="13">"[JsonProperty("""&amp;A28&amp;""")] public string "&amp; SUBSTITUTE(A28,"-", "_") &amp;" { get; set; } = """&amp;C28&amp;""";"</f>
         <v>[JsonProperty("image-show-fade")] public string image_show_fade { get; set; } = "Show Fade";</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" ref="F28" si="9">""""&amp;$A28&amp;""": """&amp;C28&amp;""","</f>
+        <f t="shared" ref="F28" si="14">""""&amp;$A28&amp;""": """&amp;C28&amp;""","</f>
         <v>"image-show-fade": "Show Fade",</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" ref="G28" si="10">""""&amp;$A28&amp;""": """&amp;D28&amp;""","</f>
+        <f t="shared" ref="G28" si="15">""""&amp;$A28&amp;""": """&amp;D28&amp;""","</f>
         <v>"image-show-fade": "Показать затенение",</v>
       </c>
     </row>
@@ -3059,15 +3059,15 @@
         <v>122</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" ref="E31:E34" si="11">"[JsonProperty("""&amp;A31&amp;""")] public string "&amp; SUBSTITUTE(A31,"-", "_") &amp;" { get; set; } = """&amp;C31&amp;""";"</f>
+        <f t="shared" ref="E31:E34" si="16">"[JsonProperty("""&amp;A31&amp;""")] public string "&amp; SUBSTITUTE(A31,"-", "_") &amp;" { get; set; } = """&amp;C31&amp;""";"</f>
         <v>[JsonProperty("fileList-destination")] public string fileList_destination { get; set; } = "Destination";</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" ref="F31:F34" si="12">""""&amp;$A31&amp;""": """&amp;C31&amp;""","</f>
+        <f t="shared" ref="F31:F34" si="17">""""&amp;$A31&amp;""": """&amp;C31&amp;""","</f>
         <v>"fileList-destination": "Destination",</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" ref="G31:G34" si="13">""""&amp;$A31&amp;""": """&amp;D31&amp;""","</f>
+        <f t="shared" ref="G31:G34" si="18">""""&amp;$A31&amp;""": """&amp;D31&amp;""","</f>
         <v>"fileList-destination": "Назначение",</v>
       </c>
     </row>
@@ -3086,15 +3086,15 @@
         <v>121</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>[JsonProperty("fileList-always-install")] public string fileList_always_install { get; set; } = "Always Install";</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>"fileList-always-install": "Always Install",</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>"fileList-always-install": "Всегда устанавливать",</v>
       </c>
     </row>
@@ -3113,15 +3113,15 @@
         <v>125</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>[JsonProperty("fileList-install-if-usable")] public string fileList_install_if_usable { get; set; } = "Install If Usable";</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>"fileList-install-if-usable": "Install If Usable",</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>"fileList-install-if-usable": "Установить если возможно",</v>
       </c>
     </row>
@@ -3140,15 +3140,15 @@
         <v>128</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>[JsonProperty("fileList-priority")] public string fileList_priority { get; set; } = "Priority";</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>"fileList-priority": "Priority",</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>"fileList-priority": "Приоритет",</v>
       </c>
     </row>
@@ -3167,15 +3167,15 @@
         <v>79</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E35:E38" si="14">"[JsonProperty("""&amp;A35&amp;""")] public string "&amp; SUBSTITUTE(A35,"-", "_") &amp;" { get; set; } = """&amp;C35&amp;""";"</f>
+        <f t="shared" ref="E35:E38" si="19">"[JsonProperty("""&amp;A35&amp;""")] public string "&amp; SUBSTITUTE(A35,"-", "_") &amp;" { get; set; } = """&amp;C35&amp;""";"</f>
         <v>[JsonProperty("conditionFlag-value")] public string conditionFlag_value { get; set; } = "Value";</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ref="F35:F38" si="15">""""&amp;$A35&amp;""": """&amp;C35&amp;""","</f>
+        <f t="shared" ref="F35:F38" si="20">""""&amp;$A35&amp;""": """&amp;C35&amp;""","</f>
         <v>"conditionFlag-value": "Value",</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ref="G35:G38" si="16">""""&amp;$A35&amp;""": """&amp;D35&amp;""","</f>
+        <f t="shared" ref="G35:G38" si="21">""""&amp;$A35&amp;""": """&amp;D35&amp;""","</f>
         <v>"conditionFlag-value": "Значение",</v>
       </c>
     </row>
@@ -3194,15 +3194,15 @@
         <v>80</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>[JsonProperty("conditionFlag-name")] public string conditionFlag_name { get; set; } = "Flag Name";</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>"conditionFlag-name": "Flag Name",</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>"conditionFlag-name": "Имя",</v>
       </c>
     </row>
@@ -3221,15 +3221,15 @@
         <v>133</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>[JsonProperty("pluginTypeDescriptor-title")] public string pluginTypeDescriptor_title { get; set; } = "Plugin type";</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>"pluginTypeDescriptor-title": "Plugin type",</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>"pluginTypeDescriptor-title": "Тип плагина",</v>
       </c>
     </row>
@@ -3248,15 +3248,15 @@
         <v>134</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>[JsonProperty("pluginTypeDescriptor-plugin-type")] public string pluginTypeDescriptor_plugin_type { get; set; } = "Plugin type";</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>"pluginTypeDescriptor-plugin-type": "Plugin type",</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>"pluginTypeDescriptor-plugin-type": "Тип",</v>
       </c>
     </row>
@@ -3275,15 +3275,15 @@
         <v>137</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" ref="E39:E40" si="17">"[JsonProperty("""&amp;A39&amp;""")] public string "&amp; SUBSTITUTE(A39,"-", "_") &amp;" { get; set; } = """&amp;C39&amp;""";"</f>
+        <f t="shared" ref="E39:E40" si="22">"[JsonProperty("""&amp;A39&amp;""")] public string "&amp; SUBSTITUTE(A39,"-", "_") &amp;" { get; set; } = """&amp;C39&amp;""";"</f>
         <v>[JsonProperty("pluginTypeDescriptor-dependency-type")] public string pluginTypeDescriptor_dependency_type { get; set; } = "Dependency Type";</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" ref="F39:F40" si="18">""""&amp;$A39&amp;""": """&amp;C39&amp;""","</f>
+        <f t="shared" ref="F39:F40" si="23">""""&amp;$A39&amp;""": """&amp;C39&amp;""","</f>
         <v>"pluginTypeDescriptor-dependency-type": "Dependency Type",</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" ref="G39:G40" si="19">""""&amp;$A39&amp;""": """&amp;D39&amp;""","</f>
+        <f t="shared" ref="G39:G40" si="24">""""&amp;$A39&amp;""": """&amp;D39&amp;""","</f>
         <v>"pluginTypeDescriptor-dependency-type": "Тип зависимости",</v>
       </c>
     </row>
@@ -3302,15 +3302,15 @@
         <v>140</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>[JsonProperty("pluginTypeDescriptor-default-plugin-type")] public string pluginTypeDescriptor_default_plugin_type { get; set; } = "Default plugin type";</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>"pluginTypeDescriptor-default-plugin-type": "Default plugin type",</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>"pluginTypeDescriptor-default-plugin-type": "Тип по умолчанию",</v>
       </c>
     </row>
@@ -3356,15 +3356,15 @@
         <v>147</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" ref="E42" si="20">"[JsonProperty("""&amp;A42&amp;""")] public string "&amp; SUBSTITUTE(A42,"-", "_") &amp;" { get; set; } = """&amp;C42&amp;""";"</f>
+        <f t="shared" ref="E42" si="25">"[JsonProperty("""&amp;A42&amp;""")] public string "&amp; SUBSTITUTE(A42,"-", "_") &amp;" { get; set; } = """&amp;C42&amp;""";"</f>
         <v>[JsonProperty("dependencyPattern-pattern")] public string dependencyPattern_pattern { get; set; } = "Pattern";</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" ref="F42" si="21">""""&amp;$A42&amp;""": """&amp;C42&amp;""","</f>
+        <f t="shared" ref="F42" si="26">""""&amp;$A42&amp;""": """&amp;C42&amp;""","</f>
         <v>"dependencyPattern-pattern": "Pattern",</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" ref="G42" si="22">""""&amp;$A42&amp;""": """&amp;D42&amp;""","</f>
+        <f t="shared" ref="G42" si="27">""""&amp;$A42&amp;""": """&amp;D42&amp;""","</f>
         <v>"dependencyPattern-pattern": "Шаблон",</v>
       </c>
     </row>
@@ -3437,15 +3437,15 @@
         <v>178</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" ref="E45:E58" si="23">"[JsonProperty("""&amp;A45&amp;""")] public string "&amp; SUBSTITUTE(A45,"-", "_") &amp;" { get; set; } = """&amp;C45&amp;""";"</f>
+        <f t="shared" ref="E45:E58" si="28">"[JsonProperty("""&amp;A45&amp;""")] public string "&amp; SUBSTITUTE(A45,"-", "_") &amp;" { get; set; } = """&amp;C45&amp;""";"</f>
         <v>[JsonProperty("project-module-name")] public string project_module_name { get; set; } = "Module name";</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" ref="F45:F58" si="24">""""&amp;$A45&amp;""": """&amp;C45&amp;""","</f>
+        <f t="shared" ref="F45:F58" si="29">""""&amp;$A45&amp;""": """&amp;C45&amp;""","</f>
         <v>"project-module-name": "Module name",</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" ref="G45:G58" si="25">""""&amp;$A45&amp;""": """&amp;D45&amp;""","</f>
+        <f t="shared" ref="G45:G58" si="30">""""&amp;$A45&amp;""": """&amp;D45&amp;""","</f>
         <v>"project-module-name": "Имя модуля",</v>
       </c>
     </row>
@@ -3464,15 +3464,15 @@
         <v>179</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-author")] public string project_author { get; set; } = "Author";</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-author": "Author",</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-author": "Автор",</v>
       </c>
     </row>
@@ -3491,15 +3491,15 @@
         <v>180</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-version")] public string project_version { get; set; } = "Version";</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-version": "Version",</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-version": "Версия",</v>
       </c>
     </row>
@@ -3518,15 +3518,15 @@
         <v>181</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-website")] public string project_website { get; set; } = "Website";</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-website": "Website",</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-website": "Сайт",</v>
       </c>
     </row>
@@ -3545,15 +3545,15 @@
         <v>182</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-category")] public string project_category { get; set; } = "Category";</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-category": "Category",</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-category": "Категория",</v>
       </c>
     </row>
@@ -3572,15 +3572,15 @@
         <v>98</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-description")] public string project_description { get; set; } = "Description";</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-description": "Description",</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-description": "Описание",</v>
       </c>
     </row>
@@ -3599,15 +3599,15 @@
         <v>183</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-module-title")] public string project_module_title { get; set; } = "Module Title Settings";</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-module-title": "Module Title Settings",</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-module-title": "Настройки заголовка",</v>
       </c>
     </row>
@@ -3626,15 +3626,15 @@
         <v>184</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-module-title-field")] public string project_module_title_field { get; set; } = "Title";</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-module-title-field": "Title",</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-module-title-field": "Заголовок",</v>
       </c>
     </row>
@@ -3653,15 +3653,15 @@
         <v>185</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-color")] public string project_color { get; set; } = "Color";</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-color": "Color",</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-color": "Цвет",</v>
       </c>
     </row>
@@ -3680,15 +3680,15 @@
         <v>186</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-position")] public string project_position { get; set; } = "Position";</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-position": "Position",</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-position": "Позиция",</v>
       </c>
     </row>
@@ -3707,15 +3707,15 @@
         <v>23</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-other-settings-title")] public string project_other_settings_title { get; set; } = "Other Settings";</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-other-settings-title": "Other Settings",</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-other-settings-title": "Иные настройки",</v>
       </c>
     </row>
@@ -3734,15 +3734,15 @@
         <v>190</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-install-step-order")] public string project_install_step_order { get; set; } = "InstallStep Order";</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-install-step-order": "InstallStep Order",</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-install-step-order": "Сортировка шагов установки",</v>
       </c>
     </row>
@@ -3761,15 +3761,15 @@
         <v>99</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-image")] public string project_image { get; set; } = "Image";</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-image": "Image",</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-image": "Банер",</v>
       </c>
     </row>
@@ -3788,15 +3788,15 @@
         <v>110</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[JsonProperty("project-files-and-folder-title")] public string project_files_and_folder_title { get; set; } = "Files and folders";</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>"project-files-and-folder-title": "Files and folders",</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>"project-files-and-folder-title": "Файлы и папки",</v>
       </c>
     </row>
@@ -3819,11 +3819,11 @@
         <v>[JsonProperty("conditionalFileInstall-title")] public string conditionalFileInstall_title { get; set; } = "Conditional File Installs";</v>
       </c>
       <c r="F59" t="str">
-        <f>""""&amp;$A59&amp;""": """&amp;C59&amp;""","</f>
+        <f t="shared" ref="F59:G61" si="31">""""&amp;$A59&amp;""": """&amp;C59&amp;""","</f>
         <v>"conditionalFileInstall-title": "Conditional File Installs",</v>
       </c>
       <c r="G59" t="str">
-        <f>""""&amp;$A59&amp;""": """&amp;D59&amp;""","</f>
+        <f t="shared" si="31"/>
         <v>"conditionalFileInstall-title": "Условные флаги",</v>
       </c>
     </row>
@@ -3846,11 +3846,11 @@
         <v>[JsonProperty("conditionalFileInstall-pattern")] public string conditionalFileInstall_pattern { get; set; } = "Pattern";</v>
       </c>
       <c r="F60" t="str">
-        <f>""""&amp;$A60&amp;""": """&amp;C60&amp;""","</f>
+        <f t="shared" si="31"/>
         <v>"conditionalFileInstall-pattern": "Pattern",</v>
       </c>
       <c r="G60" t="str">
-        <f>""""&amp;$A60&amp;""": """&amp;D60&amp;""","</f>
+        <f t="shared" si="31"/>
         <v>"conditionalFileInstall-pattern": "Шаблон",</v>
       </c>
     </row>
@@ -3873,11 +3873,11 @@
         <v>[JsonProperty("conditionalFileInstall-file-list-title")] public string conditionalFileInstall_file_list_title { get; set; } = "File list";</v>
       </c>
       <c r="F61" t="str">
-        <f>""""&amp;$A61&amp;""": """&amp;C61&amp;""","</f>
+        <f t="shared" si="31"/>
         <v>"conditionalFileInstall-file-list-title": "File list",</v>
       </c>
       <c r="G61" t="str">
-        <f>""""&amp;$A61&amp;""": """&amp;D61&amp;""","</f>
+        <f t="shared" si="31"/>
         <v>"conditionalFileInstall-file-list-title": "Список файлов",</v>
       </c>
     </row>
@@ -3891,10 +3891,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,865 +4433,937 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
+        <f>Editor!A23 &amp; "-tooltip"</f>
+        <v>plugin-files-and-folders-tooltip</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>[JsonProperty("plugin-files-and-folders-tooltip")] public string plugin_files_and_folders_tooltip { get; set; } = "with out description";</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>"plugin-files-and-folders-tooltip": "with out description",</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>"plugin-files-and-folders-tooltip": "Без описания",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>Editor!A24 &amp; "-tooltip"</f>
+        <v>plugin-condition-flags-tooltip</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>[JsonProperty("plugin-condition-flags-tooltip")] public string plugin_condition_flags_tooltip { get; set; } = "with out description";</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>"plugin-condition-flags-tooltip": "with out description",</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v>"plugin-condition-flags-tooltip": "Без описания",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
         <f>Editor!A25 &amp; "-tooltip"</f>
         <v>image-path-tooltip</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D25" t="str">
         <f t="shared" si="1"/>
         <v>[JsonProperty("image-path-tooltip")] public string image_path_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="2"/>
         <v>"image-path-tooltip": "with out description",</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F25" t="str">
         <f t="shared" si="3"/>
         <v>"image-path-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
         <f>Editor!A26 &amp; "-tooltip"</f>
         <v>image-show-tooltip</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D26" t="str">
         <f t="shared" si="1"/>
         <v>[JsonProperty("image-show-tooltip")] public string image_show_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="2"/>
         <v>"image-show-tooltip": "with out description",</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="3"/>
         <v>"image-show-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
         <f>Editor!A27 &amp; "-tooltip"</f>
         <v>image-height-tooltip</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>87</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D27" t="str">
         <f t="shared" si="1"/>
         <v>[JsonProperty("image-height-tooltip")] public string image_height_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="2"/>
         <v>"image-height-tooltip": "with out description",</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="3"/>
         <v>"image-height-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>Editor!A28 &amp; "-tooltip"</f>
+        <v>image-show-fade-tooltip</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>[JsonProperty("image-show-fade-tooltip")] public string image_show_fade_tooltip { get; set; } = "with out description";</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>"image-show-fade-tooltip": "with out description",</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v>"image-show-fade-tooltip": "Без описания",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
         <f>Editor!A29 &amp; "-tooltip"</f>
         <v>fileList-destination-button-ok-tooltip</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>87</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="1"/>
         <v>[JsonProperty("fileList-destination-button-ok-tooltip")] public string fileList_destination_button_ok_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="2"/>
         <v>"fileList-destination-button-ok-tooltip": "with out description",</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="3"/>
         <v>"fileList-destination-button-ok-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
         <f>Editor!A30 &amp; "-tooltip"</f>
         <v>fileList-source-tooltip</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D30" t="str">
         <f t="shared" si="1"/>
         <v>[JsonProperty("fileList-source-tooltip")] public string fileList_source_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="2"/>
         <v>"fileList-source-tooltip": "with out description",</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="3"/>
         <v>"fileList-source-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
         <f>Editor!A31 &amp; "-tooltip"</f>
         <v>fileList-destination-tooltip</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D31" t="str">
         <f t="shared" si="1"/>
         <v>[JsonProperty("fileList-destination-tooltip")] public string fileList_destination_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="2"/>
         <v>"fileList-destination-tooltip": "with out description",</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="3"/>
         <v>"fileList-destination-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
         <f>Editor!A32 &amp; "-tooltip"</f>
         <v>fileList-always-install-tooltip</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>87</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
+      <c r="D32" t="str">
+        <f t="shared" ref="D32:D37" si="4">"[JsonProperty("""&amp;A32&amp;""")] public string "&amp; SUBSTITUTE(A32,"-", "_") &amp;" { get; set; } = """&amp;B32&amp;""";"</f>
         <v>[JsonProperty("fileList-always-install-tooltip")] public string fileList_always_install_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="2"/>
+      <c r="E32" t="str">
+        <f t="shared" ref="E32:E37" si="5">""""&amp;$A32&amp;""": """&amp;B32&amp;""","</f>
         <v>"fileList-always-install-tooltip": "with out description",</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="3"/>
+      <c r="F32" t="str">
+        <f t="shared" ref="F32:F37" si="6">""""&amp;$A32&amp;""": """&amp;C32&amp;""","</f>
         <v>"fileList-always-install-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
         <f>Editor!A33 &amp; "-tooltip"</f>
         <v>fileList-install-if-usable-tooltip</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
+      <c r="D33" t="str">
+        <f t="shared" si="4"/>
         <v>[JsonProperty("fileList-install-if-usable-tooltip")] public string fileList_install_if_usable_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="2"/>
+      <c r="E33" t="str">
+        <f t="shared" si="5"/>
         <v>"fileList-install-if-usable-tooltip": "with out description",</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="3"/>
+      <c r="F33" t="str">
+        <f t="shared" si="6"/>
         <v>"fileList-install-if-usable-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f>Editor!A34 &amp; "-tooltip"</f>
         <v>fileList-priority-tooltip</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>87</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
+      <c r="D34" t="str">
+        <f t="shared" si="4"/>
         <v>[JsonProperty("fileList-priority-tooltip")] public string fileList_priority_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="2"/>
+      <c r="E34" t="str">
+        <f t="shared" si="5"/>
         <v>"fileList-priority-tooltip": "with out description",</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="3"/>
+      <c r="F34" t="str">
+        <f t="shared" si="6"/>
         <v>"fileList-priority-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
         <f>Editor!A35 &amp; "-tooltip"</f>
         <v>conditionFlag-value-tooltip</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" ref="D32:D37" si="4">"[JsonProperty("""&amp;A32&amp;""")] public string "&amp; SUBSTITUTE(A32,"-", "_") &amp;" { get; set; } = """&amp;B32&amp;""";"</f>
+      <c r="D35" t="str">
+        <f t="shared" si="4"/>
         <v>[JsonProperty("conditionFlag-value-tooltip")] public string conditionFlag_value_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" ref="E32:E37" si="5">""""&amp;$A32&amp;""": """&amp;B32&amp;""","</f>
+      <c r="E35" t="str">
+        <f t="shared" si="5"/>
         <v>"conditionFlag-value-tooltip": "with out description",</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" ref="F32:F37" si="6">""""&amp;$A32&amp;""": """&amp;C32&amp;""","</f>
+      <c r="F35" t="str">
+        <f t="shared" si="6"/>
         <v>"conditionFlag-value-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
         <f>Editor!A36 &amp; "-tooltip"</f>
         <v>conditionFlag-name-tooltip</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>87</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="4"/>
         <v>[JsonProperty("conditionFlag-name-tooltip")] public string conditionFlag_name_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E36" t="str">
         <f t="shared" si="5"/>
         <v>"conditionFlag-name-tooltip": "with out description",</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="6"/>
         <v>"conditionFlag-name-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
         <f>Editor!A37 &amp; "-tooltip"</f>
         <v>pluginTypeDescriptor-title-tooltip</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>87</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="4"/>
         <v>[JsonProperty("pluginTypeDescriptor-title-tooltip")] public string pluginTypeDescriptor_title_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E37" t="str">
         <f t="shared" si="5"/>
         <v>"pluginTypeDescriptor-title-tooltip": "with out description",</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="6"/>
         <v>"pluginTypeDescriptor-title-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
         <f>Editor!A38 &amp; "-tooltip"</f>
         <v>pluginTypeDescriptor-plugin-type-tooltip</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>87</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="4"/>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:D58" si="7">"[JsonProperty("""&amp;A38&amp;""")] public string "&amp; SUBSTITUTE(A38,"-", "_") &amp;" { get; set; } = """&amp;B38&amp;""";"</f>
         <v>[JsonProperty("pluginTypeDescriptor-plugin-type-tooltip")] public string pluginTypeDescriptor_plugin_type_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="5"/>
+      <c r="E38" t="str">
+        <f t="shared" ref="E38:E58" si="8">""""&amp;$A38&amp;""": """&amp;B38&amp;""","</f>
         <v>"pluginTypeDescriptor-plugin-type-tooltip": "with out description",</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="6"/>
+      <c r="F38" t="str">
+        <f t="shared" ref="F38:F58" si="9">""""&amp;$A38&amp;""": """&amp;C38&amp;""","</f>
         <v>"pluginTypeDescriptor-plugin-type-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
         <f>Editor!A39 &amp; "-tooltip"</f>
         <v>pluginTypeDescriptor-dependency-type-tooltip</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>87</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="4"/>
+      <c r="D39" t="str">
+        <f t="shared" si="7"/>
         <v>[JsonProperty("pluginTypeDescriptor-dependency-type-tooltip")] public string pluginTypeDescriptor_dependency_type_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="5"/>
+      <c r="E39" t="str">
+        <f t="shared" si="8"/>
         <v>"pluginTypeDescriptor-dependency-type-tooltip": "with out description",</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="6"/>
+      <c r="F39" t="str">
+        <f t="shared" si="9"/>
         <v>"pluginTypeDescriptor-dependency-type-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
         <f>Editor!A40 &amp; "-tooltip"</f>
         <v>pluginTypeDescriptor-default-plugin-type-tooltip</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" t="s">
         <v>87</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="4"/>
+      <c r="D40" t="str">
+        <f t="shared" si="7"/>
         <v>[JsonProperty("pluginTypeDescriptor-default-plugin-type-tooltip")] public string pluginTypeDescriptor_default_plugin_type_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="5"/>
+      <c r="E40" t="str">
+        <f t="shared" si="8"/>
         <v>"pluginTypeDescriptor-default-plugin-type-tooltip": "with out description",</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="6"/>
+      <c r="F40" t="str">
+        <f t="shared" si="9"/>
         <v>"pluginTypeDescriptor-default-plugin-type-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
         <f>Editor!A41 &amp; "-tooltip"</f>
         <v>dependencyPattern-plugin-type-tooltip</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" ref="D38:D58" si="7">"[JsonProperty("""&amp;A38&amp;""")] public string "&amp; SUBSTITUTE(A38,"-", "_") &amp;" { get; set; } = """&amp;B38&amp;""";"</f>
+      <c r="D41" t="str">
+        <f t="shared" si="7"/>
         <v>[JsonProperty("dependencyPattern-plugin-type-tooltip")] public string dependencyPattern_plugin_type_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" ref="E38:E58" si="8">""""&amp;$A38&amp;""": """&amp;B38&amp;""","</f>
+      <c r="E41" t="str">
+        <f t="shared" si="8"/>
         <v>"dependencyPattern-plugin-type-tooltip": "with out description",</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" ref="F38:F58" si="9">""""&amp;$A38&amp;""": """&amp;C38&amp;""","</f>
+      <c r="F41" t="str">
+        <f t="shared" si="9"/>
         <v>"dependencyPattern-plugin-type-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
         <f>Editor!A42 &amp; "-tooltip"</f>
         <v>dependencyPattern-pattern-tooltip</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>87</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D42" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("dependencyPattern-pattern-tooltip")] public string dependencyPattern_pattern_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="8"/>
         <v>"dependencyPattern-pattern-tooltip": "with out description",</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="9"/>
         <v>"dependencyPattern-pattern-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
         <f>Editor!A43 &amp; "-tooltip"</f>
         <v>dependencyPattern-dependency-type-tooltip</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>87</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D43" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("dependencyPattern-dependency-type-tooltip")] public string dependencyPattern_dependency_type_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="8"/>
         <v>"dependencyPattern-dependency-type-tooltip": "with out description",</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F43" t="str">
         <f t="shared" si="9"/>
         <v>"dependencyPattern-dependency-type-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
         <f>Editor!A44 &amp; "-tooltip"</f>
         <v>project-mod-info-settings-tooltip</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>87</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D44" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-mod-info-settings-tooltip")] public string project_mod_info_settings_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="8"/>
         <v>"project-mod-info-settings-tooltip": "with out description",</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F44" t="str">
         <f t="shared" si="9"/>
         <v>"project-mod-info-settings-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
         <f>Editor!A45 &amp; "-tooltip"</f>
         <v>project-module-name-tooltip</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D45" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-module-name-tooltip")] public string project_module_name_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="8"/>
         <v>"project-module-name-tooltip": "with out description",</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F45" t="str">
         <f t="shared" si="9"/>
         <v>"project-module-name-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
         <f>Editor!A46 &amp; "-tooltip"</f>
         <v>project-author-tooltip</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>35</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C46" t="s">
         <v>87</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D46" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-author-tooltip")] public string project_author_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="8"/>
         <v>"project-author-tooltip": "with out description",</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F46" t="str">
         <f t="shared" si="9"/>
         <v>"project-author-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
         <f>Editor!A47 &amp; "-tooltip"</f>
         <v>project-version-tooltip</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" t="s">
         <v>87</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D47" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-version-tooltip")] public string project_version_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="8"/>
         <v>"project-version-tooltip": "with out description",</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F47" t="str">
         <f t="shared" si="9"/>
         <v>"project-version-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
         <f>Editor!A48 &amp; "-tooltip"</f>
         <v>project-website-tooltip</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
         <v>35</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>87</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D48" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-website-tooltip")] public string project_website_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="8"/>
         <v>"project-website-tooltip": "with out description",</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F48" t="str">
         <f t="shared" si="9"/>
         <v>"project-website-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
         <f>Editor!A49 &amp; "-tooltip"</f>
         <v>project-category-tooltip</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>35</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D49" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-category-tooltip")] public string project_category_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="8"/>
         <v>"project-category-tooltip": "with out description",</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F49" t="str">
         <f t="shared" si="9"/>
         <v>"project-category-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
         <f>Editor!A50 &amp; "-tooltip"</f>
         <v>project-description-tooltip</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>35</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>87</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D50" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-description-tooltip")] public string project_description_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="8"/>
         <v>"project-description-tooltip": "with out description",</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F50" t="str">
         <f t="shared" si="9"/>
         <v>"project-description-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
         <f>Editor!A51 &amp; "-tooltip"</f>
         <v>project-module-title-tooltip</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>35</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
         <v>87</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D51" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-module-title-tooltip")] public string project_module_title_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="8"/>
         <v>"project-module-title-tooltip": "with out description",</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F51" t="str">
         <f t="shared" si="9"/>
         <v>"project-module-title-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
         <f>Editor!A52 &amp; "-tooltip"</f>
         <v>project-module-title-field-tooltip</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>35</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>87</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D52" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-module-title-field-tooltip")] public string project_module_title_field_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="8"/>
         <v>"project-module-title-field-tooltip": "with out description",</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F52" t="str">
         <f t="shared" si="9"/>
         <v>"project-module-title-field-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
         <f>Editor!A53 &amp; "-tooltip"</f>
         <v>project-color-tooltip</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>35</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" t="s">
         <v>87</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D53" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-color-tooltip")] public string project_color_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="8"/>
         <v>"project-color-tooltip": "with out description",</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F53" t="str">
         <f t="shared" si="9"/>
         <v>"project-color-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>Editor!A54 &amp; "-tooltip"</f>
         <v>project-position-tooltip</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>87</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D54" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-position-tooltip")] public string project_position_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="8"/>
         <v>"project-position-tooltip": "with out description",</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F54" t="str">
         <f t="shared" si="9"/>
         <v>"project-position-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
         <f>Editor!A55 &amp; "-tooltip"</f>
         <v>project-other-settings-title-tooltip</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>35</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>87</v>
       </c>
-      <c r="D52" t="str">
+      <c r="D55" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-other-settings-title-tooltip")] public string project_other_settings_title_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="8"/>
         <v>"project-other-settings-title-tooltip": "with out description",</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F55" t="str">
         <f t="shared" si="9"/>
         <v>"project-other-settings-title-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
         <f>Editor!A56 &amp; "-tooltip"</f>
         <v>project-install-step-order-tooltip</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>35</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>87</v>
       </c>
-      <c r="D53" t="str">
+      <c r="D56" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-install-step-order-tooltip")] public string project_install_step_order_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="8"/>
         <v>"project-install-step-order-tooltip": "with out description",</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F56" t="str">
         <f t="shared" si="9"/>
         <v>"project-install-step-order-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
         <f>Editor!A57 &amp; "-tooltip"</f>
         <v>project-image-tooltip</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>35</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" t="s">
         <v>87</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D57" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-image-tooltip")] public string project_image_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="8"/>
         <v>"project-image-tooltip": "with out description",</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F57" t="str">
         <f t="shared" si="9"/>
         <v>"project-image-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
         <f>Editor!A58 &amp; "-tooltip"</f>
         <v>project-files-and-folder-title-tooltip</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>35</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>87</v>
       </c>
-      <c r="D55" t="str">
+      <c r="D58" t="str">
         <f t="shared" si="7"/>
         <v>[JsonProperty("project-files-and-folder-title-tooltip")] public string project_files_and_folder_title_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="8"/>
         <v>"project-files-and-folder-title-tooltip": "with out description",</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F58" t="str">
         <f t="shared" si="9"/>
         <v>"project-files-and-folder-title-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
         <f>Editor!A59 &amp; "-tooltip"</f>
         <v>conditionalFileInstall-title-tooltip</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>35</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C59" t="s">
         <v>87</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="7"/>
+      <c r="D59" t="str">
+        <f>"[JsonProperty("""&amp;A59&amp;""")] public string "&amp; SUBSTITUTE(A59,"-", "_") &amp;" { get; set; } = """&amp;B59&amp;""";"</f>
         <v>[JsonProperty("conditionalFileInstall-title-tooltip")] public string conditionalFileInstall_title_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="8"/>
+      <c r="E59" t="str">
+        <f>""""&amp;$A59&amp;""": """&amp;B59&amp;""","</f>
         <v>"conditionalFileInstall-title-tooltip": "with out description",</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="9"/>
+      <c r="F59" t="str">
+        <f>""""&amp;$A59&amp;""": """&amp;C59&amp;""","</f>
         <v>"conditionalFileInstall-title-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
         <f>Editor!A60 &amp; "-tooltip"</f>
         <v>conditionalFileInstall-pattern-tooltip</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>35</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>87</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="7"/>
+      <c r="D60" t="str">
+        <f t="shared" ref="D60:D61" si="10">"[JsonProperty("""&amp;A60&amp;""")] public string "&amp; SUBSTITUTE(A60,"-", "_") &amp;" { get; set; } = """&amp;B60&amp;""";"</f>
         <v>[JsonProperty("conditionalFileInstall-pattern-tooltip")] public string conditionalFileInstall_pattern_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E57" t="str">
-        <f t="shared" si="8"/>
+      <c r="E60" t="str">
+        <f t="shared" ref="E60:E61" si="11">""""&amp;$A60&amp;""": """&amp;B60&amp;""","</f>
         <v>"conditionalFileInstall-pattern-tooltip": "with out description",</v>
       </c>
-      <c r="F57" t="str">
-        <f t="shared" si="9"/>
+      <c r="F60" t="str">
+        <f t="shared" ref="F60:F61" si="12">""""&amp;$A60&amp;""": """&amp;C60&amp;""","</f>
         <v>"conditionalFileInstall-pattern-tooltip": "Без описания",</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
         <f>Editor!A61 &amp; "-tooltip"</f>
         <v>conditionalFileInstall-file-list-title-tooltip</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" t="s">
         <v>35</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C61" t="s">
         <v>87</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="7"/>
+      <c r="D61" t="str">
+        <f t="shared" si="10"/>
         <v>[JsonProperty("conditionalFileInstall-file-list-title-tooltip")] public string conditionalFileInstall_file_list_title_tooltip { get; set; } = "with out description";</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="8"/>
+      <c r="E61" t="str">
+        <f t="shared" si="11"/>
         <v>"conditionalFileInstall-file-list-title-tooltip": "with out description",</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="9"/>
+      <c r="F61" t="str">
+        <f t="shared" si="12"/>
         <v>"conditionalFileInstall-file-list-title-tooltip": "Без описания",</v>
       </c>
     </row>
@@ -5307,8 +5379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E88"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
